--- a/Data_frame/balancos_definitivos/NTCO3.xlsx
+++ b/Data_frame/balancos_definitivos/NTCO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -582,6 +597,15 @@
       <c r="R2" t="n">
         <v>50570784.768</v>
       </c>
+      <c r="S2" t="n">
+        <v>42747015.168</v>
+      </c>
+      <c r="T2" t="n">
+        <v>41646391.296</v>
+      </c>
+      <c r="U2" t="n">
+        <v>40759304.192</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +664,15 @@
       <c r="R3" t="n">
         <v>17463103.488</v>
       </c>
+      <c r="S3" t="n">
+        <v>15987221.504</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15182557.184</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13934275.584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,6 +731,15 @@
       <c r="R4" t="n">
         <v>3292480</v>
       </c>
+      <c r="S4" t="n">
+        <v>3750944</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4190643.968</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1596338.048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,6 +798,15 @@
       <c r="R5" t="n">
         <v>3480870.912</v>
       </c>
+      <c r="S5" t="n">
+        <v>4024056.064</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1665371.008</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1918401.024</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -814,6 +865,15 @@
       <c r="R6" t="n">
         <v>3406585.088</v>
       </c>
+      <c r="S6" t="n">
+        <v>3547310.08</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3698857.984</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4524867.072</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -872,6 +932,15 @@
       <c r="R7" t="n">
         <v>4362897.92</v>
       </c>
+      <c r="S7" t="n">
+        <v>3087395.072</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3709506.048</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3982482.944</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -930,6 +999,15 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,6 +1066,15 @@
       <c r="R9" t="n">
         <v>1402877.056</v>
       </c>
+      <c r="S9" t="n">
+        <v>784092.992</v>
+      </c>
+      <c r="T9" t="n">
+        <v>952288</v>
+      </c>
+      <c r="U9" t="n">
+        <v>921057.9840000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1046,6 +1133,15 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1104,6 +1200,15 @@
       <c r="R11" t="n">
         <v>1517394.048</v>
       </c>
+      <c r="S11" t="n">
+        <v>793424</v>
+      </c>
+      <c r="T11" t="n">
+        <v>965889.9840000001</v>
+      </c>
+      <c r="U11" t="n">
+        <v>991129.024</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1162,6 +1267,15 @@
       <c r="R12" t="n">
         <v>4977936.896</v>
       </c>
+      <c r="S12" t="n">
+        <v>5681544.192</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5311828.992</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4623170.048</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1220,6 +1334,15 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1278,6 +1401,15 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1336,6 +1468,15 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1394,6 +1535,15 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v>806582.0159999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>332494.016</v>
+      </c>
+      <c r="U16" t="n">
+        <v>375691.008</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1452,6 +1602,15 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1510,6 +1669,15 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1568,6 +1736,15 @@
       <c r="R19" t="n">
         <v>2677285.12</v>
       </c>
+      <c r="S19" t="n">
+        <v>2200695.04</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2421377.024</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1681687.04</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1626,6 +1803,15 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1684,6 +1870,15 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1742,6 +1937,15 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1800,6 +2004,15 @@
       <c r="R23" t="n">
         <v>5832598.016</v>
       </c>
+      <c r="S23" t="n">
+        <v>4508383.232</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4421430.784</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4629020.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1858,6 +2071,15 @@
       <c r="R24" t="n">
         <v>22297145.344</v>
       </c>
+      <c r="S24" t="n">
+        <v>16569866.24</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16730576.896</v>
+      </c>
+      <c r="U24" t="n">
+        <v>17572839.424</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1916,6 +2138,15 @@
       <c r="R25" t="n">
         <v>0</v>
       </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1974,6 +2205,15 @@
       <c r="R26" t="n">
         <v>50570784.768</v>
       </c>
+      <c r="S26" t="n">
+        <v>42747015.168</v>
+      </c>
+      <c r="T26" t="n">
+        <v>41646391.296</v>
+      </c>
+      <c r="U26" t="n">
+        <v>40759304.192</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2032,6 +2272,15 @@
       <c r="R27" t="n">
         <v>9610364.927999999</v>
       </c>
+      <c r="S27" t="n">
+        <v>10413499.392</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10296062.976</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9476476.927999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2090,6 +2339,15 @@
       <c r="R28" t="n">
         <v>1072729.024</v>
       </c>
+      <c r="S28" t="n">
+        <v>1019688</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1138552.96</v>
+      </c>
+      <c r="U28" t="n">
+        <v>954649.024</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2148,6 +2406,15 @@
       <c r="R29" t="n">
         <v>5516964.864</v>
       </c>
+      <c r="S29" t="n">
+        <v>5302477.824</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5350676.992</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5757737.984</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2206,6 +2473,15 @@
       <c r="R30" t="n">
         <v>716028.032</v>
       </c>
+      <c r="S30" t="n">
+        <v>1543202.048</v>
+      </c>
+      <c r="T30" t="n">
+        <v>818616</v>
+      </c>
+      <c r="U30" t="n">
+        <v>746515.968</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2264,6 +2540,15 @@
       <c r="R31" t="n">
         <v>141128</v>
       </c>
+      <c r="S31" t="n">
+        <v>163844</v>
+      </c>
+      <c r="T31" t="n">
+        <v>128090</v>
+      </c>
+      <c r="U31" t="n">
+        <v>92038</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2322,6 +2607,15 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2380,6 +2674,15 @@
       <c r="R33" t="n">
         <v>244</v>
       </c>
+      <c r="S33" t="n">
+        <v>294231.008</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1018288</v>
+      </c>
+      <c r="U33" t="n">
+        <v>41442</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2438,6 +2741,15 @@
       <c r="R34" t="n">
         <v>1741960.032</v>
       </c>
+      <c r="S34" t="n">
+        <v>1598754.976</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1248803.968</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1374825.008</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2496,6 +2808,15 @@
       <c r="R35" t="n">
         <v>421311.008</v>
       </c>
+      <c r="S35" t="n">
+        <v>491300.992</v>
+      </c>
+      <c r="T35" t="n">
+        <v>593035.008</v>
+      </c>
+      <c r="U35" t="n">
+        <v>509268.992</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2554,6 +2875,15 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2612,6 +2942,15 @@
       <c r="R37" t="n">
         <v>12915177.472</v>
       </c>
+      <c r="S37" t="n">
+        <v>9213050.880000001</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9262936.063999999</v>
+      </c>
+      <c r="U37" t="n">
+        <v>9027227.648</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2670,6 +3009,15 @@
       <c r="R38" t="n">
         <v>6069774.848</v>
       </c>
+      <c r="S38" t="n">
+        <v>5947857.92</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6059054.08</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5653753.856</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2728,6 +3076,15 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2786,6 +3143,15 @@
       <c r="R40" t="n">
         <v>2004878.976</v>
       </c>
+      <c r="S40" t="n">
+        <v>1375278.976</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1353860.992</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1424324.992</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2844,6 +3210,15 @@
       <c r="R41" t="n">
         <v>3244414.976</v>
       </c>
+      <c r="S41" t="n">
+        <v>328089.984</v>
+      </c>
+      <c r="T41" t="n">
+        <v>361124</v>
+      </c>
+      <c r="U41" t="n">
+        <v>404880</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2902,6 +3277,15 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2960,6 +3344,15 @@
       <c r="R43" t="n">
         <v>1596108.032</v>
       </c>
+      <c r="S43" t="n">
+        <v>1561824</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1488897.024</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1544269.056</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3018,6 +3411,15 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3076,6 +3478,15 @@
       <c r="R45" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3134,6 +3545,15 @@
       <c r="R46" t="n">
         <v>16106</v>
       </c>
+      <c r="S46" t="n">
+        <v>17226</v>
+      </c>
+      <c r="T46" t="n">
+        <v>16715</v>
+      </c>
+      <c r="U46" t="n">
+        <v>17925</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3192,6 +3612,15 @@
       <c r="R47" t="n">
         <v>28029138.416</v>
       </c>
+      <c r="S47" t="n">
+        <v>23103237.872</v>
+      </c>
+      <c r="T47" t="n">
+        <v>22070680.328</v>
+      </c>
+      <c r="U47" t="n">
+        <v>22237674.616</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3250,6 +3679,15 @@
       <c r="R48" t="n">
         <v>12484514.816</v>
       </c>
+      <c r="S48" t="n">
+        <v>12484514.816</v>
+      </c>
+      <c r="T48" t="n">
+        <v>12484514.816</v>
+      </c>
+      <c r="U48" t="n">
+        <v>12484514.816</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3308,6 +3746,15 @@
       <c r="R49" t="n">
         <v>10263030.784</v>
       </c>
+      <c r="S49" t="n">
+        <v>10302265.344</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10336512</v>
+      </c>
+      <c r="U49" t="n">
+        <v>10405700.608</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3366,6 +3813,15 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3424,6 +3880,15 @@
       <c r="R51" t="n">
         <v>0</v>
       </c>
+      <c r="S51" t="n">
+        <v>780307.968</v>
+      </c>
+      <c r="T51" t="n">
+        <v>51703</v>
+      </c>
+      <c r="U51" t="n">
+        <v>50265</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3482,6 +3947,15 @@
       <c r="R52" t="n">
         <v>3739241.984</v>
       </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-934816</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-1793730.048</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3540,6 +4014,15 @@
       <c r="R53" t="n">
         <v>1542349.952</v>
       </c>
+      <c r="S53" t="n">
+        <v>-463848.992</v>
+      </c>
+      <c r="T53" t="n">
+        <v>132766</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1090924.032</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3598,6 +4081,15 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3656,6 +4148,15 @@
       <c r="R55" t="n">
         <v>0</v>
       </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3712,6 +4213,15 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3738,6 +4248,9 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3762,6 +4275,9 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3820,6 +4336,15 @@
       <c r="R59" t="n">
         <v>7517259.776</v>
       </c>
+      <c r="S59" t="n">
+        <v>4126319.104</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6105252.864</v>
+      </c>
+      <c r="U59" t="n">
+        <v>7352631.808</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3878,6 +4403,15 @@
       <c r="R60" t="n">
         <v>-2610992.896</v>
       </c>
+      <c r="S60" t="n">
+        <v>-1881811.2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-2127079.936</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-2610971.904</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3936,6 +4470,15 @@
       <c r="R61" t="n">
         <v>4906267.136</v>
       </c>
+      <c r="S61" t="n">
+        <v>2244507.648</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3978172.928</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4741660.16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3994,6 +4537,15 @@
       <c r="R62" t="n">
         <v>-3251962.112</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1264030.976</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-2497074.944</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-3012726.016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4052,6 +4604,15 @@
       <c r="R63" t="n">
         <v>-1275426.048</v>
       </c>
+      <c r="S63" t="n">
+        <v>-167604.992</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-1043043.008</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-1207831.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4110,6 +4671,15 @@
       <c r="R64" t="n">
         <v>-142768.992</v>
       </c>
+      <c r="S64" t="n">
+        <v>-145266.992</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-235884</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-137284</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4168,6 +4738,15 @@
       <c r="R65" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4226,6 +4805,15 @@
       <c r="R66" t="n">
         <v>-284759.008</v>
       </c>
+      <c r="S66" t="n">
+        <v>-669122.944</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-46936</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-119993</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4284,6 +4872,15 @@
       <c r="R67" t="n">
         <v>0</v>
       </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4342,6 +4939,15 @@
       <c r="R68" t="n">
         <v>-1064904</v>
       </c>
+      <c r="S68" t="n">
+        <v>-570177.92</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-361215.008</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-135324.992</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4400,6 +5006,15 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>-2860289.024</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4457,6 +5072,15 @@
       </c>
       <c r="R70" t="n">
         <v>-1064904</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2290111.232</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-361215.008</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-135324.992</v>
       </c>
     </row>
     <row r="71">
@@ -4482,6 +5106,9 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4506,6 +5133,9 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4530,6 +5160,9 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4588,6 +5221,15 @@
       <c r="R74" t="n">
         <v>-1113553.024</v>
       </c>
+      <c r="S74" t="n">
+        <v>-571695.872</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-205980</v>
+      </c>
+      <c r="U74" t="n">
+        <v>128501</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4646,6 +5288,15 @@
       <c r="R75" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4702,6 +5353,15 @@
         <v>0</v>
       </c>
       <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4728,6 +5388,9 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4752,6 +5415,9 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4810,6 +5476,15 @@
       <c r="R79" t="n">
         <v>437</v>
       </c>
+      <c r="S79" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="T79" t="n">
+        <v>310</v>
+      </c>
+      <c r="U79" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4867,6 +5542,15 @@
       </c>
       <c r="R80" t="n">
         <v>7024429.056</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-2666419.968</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-934816</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-858913.9840000001</v>
       </c>
     </row>
   </sheetData>
